--- a/nop-biz/src/test/resources/io/nop/biz/impl/test_imp.test.xlsx
+++ b/nop-biz/src/test/resources/io/nop/biz/impl/test_imp.test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-biz\src\test\resources\io\nop\biz\impl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9228132E-B23F-485A-B326-C66EB694EFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AAFA08-5559-4C15-8E00-BA84063F603F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -657,7 +657,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -767,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="7">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
@@ -835,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
